--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzutung\SystexDocument\ExcelTester\ExcelTester\bin\Debug\net8.0-windows\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SystexProject\05_台汽電綠能帳單管理系統\04_匯入範本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DF896D-46E3-454D-A0D0-6E6D4E51AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3ED30F0-A7A3-4407-BAF1-AA1339BC12FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="1236" windowWidth="9894" windowHeight="9144" xr2:uid="{8226000D-AB14-42EF-B24D-C733FD7DACF8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8226000D-AB14-42EF-B24D-C733FD7DACF8}"/>
   </bookViews>
   <sheets>
     <sheet name="技術服務合約" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -28,64 +41,49 @@
     <t>開立統一發票資料單</t>
   </si>
   <si>
-    <t>經  辦  單  位：營運部</t>
-  </si>
-  <si>
-    <t>專案代號：</t>
-  </si>
-  <si>
-    <t>a0f46e38-45d0-4c6f-8dbc-0f0c1e08fd00、a0f46e38-45d0-4c6f-8dbc-0f0c1e08fd00、a0f46e38-45d0-4c6f-8dbc-0f0c1e08fd00</t>
-  </si>
-  <si>
-    <t>買    受    人：</t>
-  </si>
-  <si>
-    <t>Sporer Group</t>
-  </si>
-  <si>
-    <t>統一編號：</t>
-  </si>
-  <si>
-    <t>統編</t>
-  </si>
-  <si>
-    <t>地      　　址：</t>
-  </si>
-  <si>
-    <t>地址</t>
+    <t xml:space="preserve">經  辦  單  位：營運部</t>
+  </si>
+  <si>
+    <t>專案代號：d5476892-23e4-4b05-b3c2-eed75d076fd8、d5476892-23e4-4b05-b3c2-eed75d076fd8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">買    受    人：Herman Group</t>
+  </si>
+  <si>
+    <t>統一編號：統編</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地      　　址：地址</t>
   </si>
   <si>
     <t>發票日期：發票開立當日</t>
   </si>
   <si>
-    <t>品                 名</t>
-  </si>
-  <si>
-    <t>數       量</t>
-  </si>
-  <si>
-    <t>單       價</t>
-  </si>
-  <si>
-    <t>金      額</t>
-  </si>
-  <si>
-    <t>備            註</t>
-  </si>
-  <si>
-    <t>Fantastic Steel Sausages</t>
+    <t xml:space="preserve">品                 名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數       量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">單       價</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金      額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備            註</t>
+  </si>
+  <si>
+    <t>Practical Plastic Shoes</t>
   </si>
   <si>
     <t>應開立發票之聯式請</t>
   </si>
   <si>
-    <t>Fantastic Metal Bacon</t>
+    <t>Tasty Frozen Car</t>
   </si>
   <si>
     <t>在□格內打「v」</t>
-  </si>
-  <si>
-    <t>Handmade Metal Tuna</t>
   </si>
   <si>
     <r>
@@ -93,10 +91,10 @@
     </r>
     <r>
       <rPr>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+        <family val="1"/>
         <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
       </rPr>
       <t>■</t>
     </r>
@@ -108,10 +106,7 @@
     <t>NT$</t>
   </si>
   <si>
-    <t>預計收款日期：</t>
-  </si>
-  <si>
-    <t>yyyy/MM/dd</t>
+    <t>預計收款日期：yyyy/MM/dd</t>
   </si>
   <si>
     <t xml:space="preserve">  營業稅（稅率5%）</t>
@@ -126,18 +121,27 @@
     <t>審核</t>
   </si>
   <si>
-    <t>經理                       申請人</t>
+    <t xml:space="preserve">經理                       申請人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="[$-404]e/m/d;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="193" formatCode="[$-404]e/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -177,6 +181,12 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="華康行書體"/>
       <family val="3"/>
@@ -188,12 +198,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="標楷體"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,165 +349,164 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="193" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,8 +605,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2777836" y="684645"/>
-          <a:ext cx="2653146" cy="19050"/>
+          <a:off x="2690813" y="676275"/>
+          <a:ext cx="2538412" cy="19050"/>
           <a:chOff x="-5600" y="-11"/>
           <a:chExt cx="21200" cy="4"/>
         </a:xfrm>
@@ -982,24 +985,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.62890625" customWidth="1"/>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
-    <col min="6" max="6" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.62890625" customWidth="1"/>
-    <col min="8" max="8" width="16.62890625" customWidth="1"/>
-    <col min="9" max="9" width="10.26171875" customWidth="1"/>
-    <col min="10" max="10" width="30.89453125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="27.9">
+    <row r="1" ht="27.5" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="24.9">
+    <row r="2" ht="25" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1030,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="24.9">
+    <row r="3" ht="25" s="3" customFormat="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1037,271 +1040,250 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="39">
-        <v>45675.695599467595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="J3" s="40">
+        <v>45677.09949590278</v>
+      </c>
+    </row>
+    <row r="4" ht="25.15" customHeight="1" s="3" customFormat="1">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" ht="34.5" customHeight="1" s="3" customFormat="1">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="G5" s="10"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" ht="28.5" customHeight="1" s="3" customFormat="1">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="32" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" ht="25.15" customHeight="1" s="3" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="35" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" ht="25.2" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
+        <v>278.16</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="49">
+        <v>11682</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" ht="25.2" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
+        <v>51</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
+        <v>787.64</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="49">
+        <v>40169</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.2" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" ht="25.15" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46">
-        <v>27</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46">
-        <v>540.85</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="51">
-        <v>14602</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="17" t="s">
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" ht="25.15" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" ht="25.15" customHeight="1">
+      <c r="A12" s="24" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.2" customHeight="1">
-      <c r="A9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46">
-        <v>86</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46">
-        <v>858.06</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51">
-        <v>73793</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.2" customHeight="1">
-      <c r="A10" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46">
-        <v>40</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46">
-        <v>377.2</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="51">
-        <v>15088</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="16">
-        <f>SUM(H8:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>27</v>
+      <c r="F12" s="25"/>
+      <c r="G12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="18">
+        <f>SUM(G8:G11)</f>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" ht="25.15" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="38">
+      <c r="F13" s="25"/>
+      <c r="G13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="50">
         <f>ROUND(H12*5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>28</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" ht="25.15" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="18">
+        <f>H12 + H13</f>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" ht="25.15" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" ht="25.15" customHeight="1" s="3" customFormat="1">
+      <c r="A16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="16">
-        <f>H12 + H13</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.15" customHeight="1"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" ht="25.15" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" ht="25.15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
@@ -1315,16 +1297,14 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1417322834645669" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"華康楷書體W5,標準"(F-FN-0-02A)&amp;R&amp;"Times New Roman,標準"&amp;10&amp;F &amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">經  辦  單  位：營運部</t>
   </si>
   <si>
-    <t>專案代號：d5476892-23e4-4b05-b3c2-eed75d076fd8、d5476892-23e4-4b05-b3c2-eed75d076fd8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">買    受    人：Herman Group</t>
-  </si>
-  <si>
-    <t>統一編號：統編</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地      　　址：地址</t>
+    <t>專案代號：4mfkulxmcj、hnfuzwxkrr、13wv8x13um、rozvtbxnz8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">買    受    人：Streich - Balistreri</t>
+  </si>
+  <si>
+    <t>統一編號：36701508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地      　　址：841 Hirthe Causeway, Mikelland, Norway</t>
   </si>
   <si>
     <t>發票日期：發票開立當日</t>
@@ -74,16 +74,19 @@
     <t xml:space="preserve">備            註</t>
   </si>
   <si>
-    <t>Practical Plastic Shoes</t>
+    <t>Small Fresh Pizza</t>
   </si>
   <si>
     <t>應開立發票之聯式請</t>
   </si>
   <si>
-    <t>Tasty Frozen Car</t>
+    <t>Ergonomic Granite Shirt</t>
   </si>
   <si>
     <t>在□格內打「v」</t>
+  </si>
+  <si>
+    <t>Practical Plastic Table</t>
   </si>
   <si>
     <r>
@@ -100,13 +103,16 @@
     </r>
   </si>
   <si>
+    <t>Intelligent Frozen Sausages</t>
+  </si>
+  <si>
     <t xml:space="preserve">  銷　　　　　售　　　　　 額　　　　 　合　　　　 　計</t>
   </si>
   <si>
     <t>NT$</t>
   </si>
   <si>
-    <t>預計收款日期：yyyy/MM/dd</t>
+    <t>預計收款日期：2025/04/16</t>
   </si>
   <si>
     <t xml:space="preserve">  營業稅（稅率5%）</t>
@@ -135,7 +141,7 @@
     <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="193" formatCode="[$-404]e/m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -192,13 +198,6 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -395,15 +394,9 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -413,9 +406,6 @@
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,18 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1040,19 +1018,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="40">
-        <v>45677.09949590278</v>
+      <c r="J3" s="37">
+        <v>45765.72876689815</v>
       </c>
     </row>
     <row r="4" ht="25.15" customHeight="1" s="3" customFormat="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="5"/>
@@ -1061,29 +1039,29 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" ht="34.5" customHeight="1" s="3" customFormat="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" ht="28.5" customHeight="1" s="3" customFormat="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="11"/>
@@ -1119,21 +1097,21 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14">
-        <v>278.16</v>
+        <v>869.5959467170649</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="49">
-        <v>11682</v>
+      <c r="G8" s="42">
+        <v>75654</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" ht="25.2" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -1141,145 +1119,161 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14">
-        <v>787.64</v>
+        <v>226.47468201542918</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="49">
-        <v>40169</v>
+      <c r="G9" s="42">
+        <v>16759</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" ht="25.15" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="22" t="s">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" ht="25.2" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" ht="25.15" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>991.6172786243371</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="42">
+        <v>16857</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" ht="25.2" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>276.238737878878</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="42">
+        <v>7458</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" ht="25.15" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>18</v>
+      <c r="A12" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="F12" s="22"/>
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="16">
         <f>SUM(G8:G11)</f>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="23"/>
+      <c r="I12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" ht="25.15" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>21</v>
+      <c r="A13" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="50">
+      <c r="F13" s="22"/>
+      <c r="G13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="43">
         <f>ROUND(H12*5%,0)</f>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" ht="25.15" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>22</v>
+      <c r="A14" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="22"/>
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="16">
         <f>H12 + H13</f>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" ht="25.15" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" ht="25.15" customHeight="1" s="3" customFormat="1">
-      <c r="A16" s="30" t="s">
-        <v>23</v>
+      <c r="A16" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="F16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" ht="25.15" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="27"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" ht="25.15" customHeight="1"/>
   </sheetData>
@@ -1297,6 +1291,10 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_統一發票資料單範本1.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SystexProject\05_台汽電綠能帳單管理系統\04_匯入範本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emeie\SystexDocument\ExcelTester\ExcelTester\bin\Debug\net8.0-windows\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3ED30F0-A7A3-4407-BAF1-AA1339BC12FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62949D8B-6FA4-4CBE-8BFA-0AED73B25982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8226000D-AB14-42EF-B24D-C733FD7DACF8}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="14376" windowHeight="10428" xr2:uid="{8226000D-AB14-42EF-B24D-C733FD7DACF8}"/>
   </bookViews>
   <sheets>
     <sheet name="技術服務合約" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -41,52 +28,56 @@
     <t>開立統一發票資料單</t>
   </si>
   <si>
-    <t xml:space="preserve">經  辦  單  位：營運部</t>
-  </si>
-  <si>
-    <t>專案代號：4mfkulxmcj、hnfuzwxkrr、13wv8x13um、rozvtbxnz8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">買    受    人：Streich - Balistreri</t>
-  </si>
-  <si>
-    <t>統一編號：36701508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地      　　址：841 Hirthe Causeway, Mikelland, Norway</t>
+    <t>112/04/13</t>
+  </si>
+  <si>
+    <t>經  辦  單  位：營運部</t>
+  </si>
+  <si>
+    <t>專案代號：C007</t>
+  </si>
+  <si>
+    <t>買    受    人：台灣優衣庫有限公司</t>
+  </si>
+  <si>
+    <t>統一編號：25117554</t>
+  </si>
+  <si>
+    <t>地      　　址：新北市板橋區縣民大道2段68號15樓</t>
   </si>
   <si>
     <t>發票日期：發票開立當日</t>
   </si>
   <si>
-    <t xml:space="preserve">品                 名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">數       量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">單       價</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金      額</t>
-  </si>
-  <si>
-    <t xml:space="preserve">備            註</t>
-  </si>
-  <si>
-    <t>Small Fresh Pizza</t>
+    <t>品                 名</t>
+  </si>
+  <si>
+    <t>數       量</t>
+  </si>
+  <si>
+    <t>單       價</t>
+  </si>
+  <si>
+    <t>金      額</t>
+  </si>
+  <si>
+    <t>備            註</t>
+  </si>
+  <si>
+    <t>再生能源發電費
+(111/07/01~111/07/31)</t>
   </si>
   <si>
     <t>應開立發票之聯式請</t>
   </si>
   <si>
-    <t>Ergonomic Granite Shirt</t>
+    <t>電代購憑證服務費用</t>
   </si>
   <si>
     <t>在□格內打「v」</t>
   </si>
   <si>
-    <t>Practical Plastic Table</t>
+    <t>再生能源憑證登錄費</t>
   </si>
   <si>
     <r>
@@ -94,16 +85,16 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
-        <family val="1"/>
-        <sz val="12"/>
       </rPr>
       <t>■</t>
     </r>
   </si>
   <si>
-    <t>Intelligent Frozen Sausages</t>
+    <t>再生能源憑證服務費</t>
   </si>
   <si>
     <t xml:space="preserve">  銷　　　　　售　　　　　 額　　　　 　合　　　　 　計</t>
@@ -112,12 +103,15 @@
     <t>NT$</t>
   </si>
   <si>
-    <t>預計收款日期：2025/04/16</t>
+    <t>預計收款日期：</t>
   </si>
   <si>
     <t xml:space="preserve">  營業稅（稅率5%）</t>
   </si>
   <si>
+    <t>112/08/25</t>
+  </si>
+  <si>
     <t xml:space="preserve">  總　　　　 　  　　　　　　　　　　　　　　　　　　計</t>
   </si>
   <si>
@@ -127,27 +121,18 @@
     <t>審核</t>
   </si>
   <si>
-    <t xml:space="preserve">經理                       申請人</t>
+    <t>經理                       申請人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="193" formatCode="[$-404]e/m/d;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="179" formatCode="[$-404]e/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.####"/>
   </numFmts>
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -348,143 +333,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="193" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="193" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,8 +572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2690813" y="676275"/>
-          <a:ext cx="2538412" cy="19050"/>
+          <a:off x="2657475" y="688975"/>
+          <a:ext cx="2524125" cy="19050"/>
           <a:chOff x="-5600" y="-11"/>
           <a:chExt cx="21200" cy="4"/>
         </a:xfrm>
@@ -963,24 +952,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.5" s="3" customFormat="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +983,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="25" s="3" customFormat="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +997,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="25" s="3" customFormat="1">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="24.6">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1018,168 +1007,168 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="37">
-        <v>45765.72876689815</v>
-      </c>
-    </row>
-    <row r="4" ht="25.15" customHeight="1" s="3" customFormat="1">
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" ht="34.5" customHeight="1" s="3" customFormat="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="10"/>
       <c r="I5" s="31"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" ht="28.5" customHeight="1" s="3" customFormat="1">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" ht="25.15" customHeight="1" s="3" customFormat="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" ht="25.2" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14">
-        <v>87</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14">
-        <v>869.5959467170649</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="42">
-        <v>75654</v>
-      </c>
-      <c r="H8" s="14"/>
+    <row r="8" spans="1:10" ht="39" customHeight="1">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44">
+        <v>229290</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45">
+        <v>5.75</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44">
+        <v>1318418</v>
+      </c>
+      <c r="H8" s="43"/>
       <c r="I8" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" ht="25.2" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
-        <v>74</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
-        <v>226.47468201542918</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="42">
-        <v>16759</v>
-      </c>
-      <c r="H9" s="14"/>
+    <row r="9" spans="1:10" ht="25.2" customHeight="1">
+      <c r="A9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44">
+        <v>12009</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44">
+        <v>12009</v>
+      </c>
+      <c r="H9" s="43"/>
       <c r="I9" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" ht="25.2" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
-        <v>991.6172786243371</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="42">
-        <v>16857</v>
-      </c>
-      <c r="H10" s="14"/>
+    <row r="10" spans="1:10" ht="25.2" customHeight="1">
+      <c r="A10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44">
+        <v>690</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44">
+        <v>690</v>
+      </c>
+      <c r="H10" s="43"/>
       <c r="I10" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" ht="25.2" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
-        <v>276.238737878878</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="42">
-        <v>7458</v>
-      </c>
-      <c r="H11" s="14"/>
+    <row r="11" spans="1:10" ht="25.2" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44">
+        <v>111</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44">
+        <v>111</v>
+      </c>
+      <c r="H11" s="43"/>
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" ht="25.15" customHeight="1">
+    <row r="12" spans="1:10" ht="25.2" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1187,19 +1176,19 @@
       <c r="E12" s="5"/>
       <c r="F12" s="22"/>
       <c r="G12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="16">
-        <f>SUM(G8:G11)</f>
+        <v>1331228</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" ht="25.15" customHeight="1">
+    <row r="13" spans="1:10" ht="25.2" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1207,17 +1196,19 @@
       <c r="E13" s="5"/>
       <c r="F13" s="22"/>
       <c r="G13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="43">
-        <f>ROUND(H12*5%,0)</f>
+        <v>22</v>
+      </c>
+      <c r="H13" s="16">
+        <v>66561</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" ht="25.15" customHeight="1">
+      <c r="J13" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.2" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1225,15 +1216,15 @@
       <c r="E14" s="5"/>
       <c r="F14" s="22"/>
       <c r="G14" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="16">
-        <f>H12 + H13</f>
+        <v>1397789</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" ht="25.15" customHeight="1">
+    <row r="15" spans="1:10" ht="25.2" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1245,25 +1236,25 @@
       <c r="I15" s="25"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" ht="25.15" customHeight="1" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" ht="25.15" customHeight="1">
+    <row r="17" spans="1:10" ht="25.2" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1275,9 +1266,10 @@
       <c r="I17" s="28"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" ht="25.15" customHeight="1"/>
+    <row r="18" spans="1:10" ht="25.2" customHeight="1"/>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="17">
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
@@ -1294,15 +1286,14 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1417322834645669" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"華康楷書體W5,標準"(F-FN-0-02A)&amp;R&amp;"Times New Roman,標準"&amp;10&amp;F &amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>